--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC200.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC200.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="225">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,6 +600,108 @@
   </si>
   <si>
     <t>CN_09_03_CO_REC200</t>
+  </si>
+  <si>
+    <t>Ver observaciones</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Hacer una lagartija, una flecha que señala otra lagartina con patas más cortas, otra flecha, y así, otras dos lagartijas hasta llegar a una serpiente.</t>
+  </si>
+  <si>
+    <t>Hacer una lagartija de la cual salen dos flechas, una apunta hacia arriba a la derecha, la otra hacia abajo a la derecha. De la de arriba sale otra lagartija igual, y de la de abajo una lagartoja con patas más cortas. Arriba, otra flecha que lleva a otra lagartija como la del comienzo. Abajo, una flecha que lleva a una serpiente.</t>
+  </si>
+  <si>
+    <t>Hacer dos lagartijas, similares pero con algunas diferencias. De cada una sale una flecha, y ambas flechas llevan a otra lagartija que es una mezcla de las dos anteriores.</t>
+  </si>
+  <si>
+    <t>Hacer una lagartija cerca a un huevo, del cual sale otra lagartija, que es algo diferente (puede, por ejemplo, tener algunas diferencias en la coloración).</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Evolution_of_cetaceans</t>
+  </si>
+  <si>
+    <t>Evolución de cetáceos</t>
+  </si>
+  <si>
+    <t>86836111, 301511795, 86382556</t>
+  </si>
+  <si>
+    <t>Burro, caballo y mula</t>
+  </si>
+  <si>
+    <t>Poner al caballo y al burro al lado, de los dos salen flechas que señalan a la mula debajo, indicando que la mula proviene del cruce entre burro y caballo.</t>
+  </si>
+  <si>
+    <t>Neandertal</t>
+  </si>
+  <si>
+    <t>El árbol de toronja, que también se conoce como pomelo (Citrus paradisi), proviene del cruce natural de los árboles de naranja dulce (Citrus sinensis) y pampelmusa (Citrus maxima).</t>
+  </si>
+  <si>
+    <t>Toronja</t>
+  </si>
+  <si>
+    <t>Especies de homínidos</t>
+  </si>
+  <si>
+    <t>Ilustrar</t>
+  </si>
+  <si>
+    <t>Ilustrar. Por favor, cuidado al escribir los nombres.</t>
+  </si>
+  <si>
+    <t>Hacer un dibujo del Pakicetus (ver enlace, y buscar las imágenes en la parte derecha) y escribir debajo Pakicetus inachus. Luego una flecha que lleve a Ambulocetus natans (con su respectivo nombre), y después otra flecha más Kutchicetus minimus (con nombre). Luego hacer a Remingtonocetus Remingtonocetidae, después Protocetus (escribir Protocetus atavus), después hacer a Kentriodon (escribir debajo Kentriodon pernix). Por último, hacer un delfín (debe ser muy parecido a la imagen anterior) y escribir debajo "Inia geoffrensis (delfín)".</t>
+  </si>
+  <si>
+    <t>Pájaro transfomándose</t>
+  </si>
+  <si>
+    <t>Hacer un ave de algún color y forma (un penacho, cola larga, algo así), luego una flecha y otra ave un poco transformada (cola más corta, los colores van cambiando, etc), luego otra flecha y otra ave un poco más tranformada, luego otra flecha y otra ave, y finalmente una última flecha y un ave diferente a la primera, pero que se deriva de esta y de las formas intermedias. Debe haber al final 5 aves, siendo distintas la primera y la quinta, y las tres de en medio muestran el cambio gradual de la 1 a la 5.</t>
+  </si>
+  <si>
+    <t>Cladigrama</t>
+  </si>
+  <si>
+    <t>Ilustrar (son mariposas). Hacer las flechas más largas, me quedaron muy cortas. Conservar los colores.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/55/Phylogenetic_tree-es.png</t>
+  </si>
+  <si>
+    <t>Ilustrar. Poner en la parte de abajo, en donde nace el árbol, "Primera célula"</t>
+  </si>
+  <si>
+    <t>Mariposas</t>
+  </si>
+  <si>
+    <t>Especiación</t>
+  </si>
+  <si>
+    <t>Anagénesis</t>
+  </si>
+  <si>
+    <t>Cladogénesis</t>
+  </si>
+  <si>
+    <t>Hibridación</t>
+  </si>
+  <si>
+    <t>árbol de la vida</t>
+  </si>
+  <si>
+    <t>dos cladogramas</t>
+  </si>
+  <si>
+    <t>Felinos</t>
+  </si>
+  <si>
+    <t>Cambiar el leopardo de la primera columna (debajo de la pantera negra) por un gato común (296574431), borrar el tigre de la esquina superior derecha, y hacer al león un poquito más pequeño.</t>
+  </si>
+  <si>
+    <t>Hacer un dibujo en el que hay un continente y una isla cercana. Hacer en el continente un ratón café y escribir debajo "diurno", y un ratón negra y escribir debajo "nocturno". Hacer un ratón gris en la isla. Dos flechas unen los ratones café y negro y van a un texto que dice "Aislamiento no geográfico". El ratón gris se une por un lado al café y por el otro al negro, y hay un texto que dice "Aislamiento geográfico".</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1420,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1509,10 +1611,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1761,6 +1859,172 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>639024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1835055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="12616962"/>
+          <a:ext cx="5401524" cy="1835055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>639024</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2213040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="13100538"/>
+          <a:ext cx="5401524" cy="2213040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666848</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1907637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\Miguel\Desktop\Mariposas 2.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16412308" y="17013115"/>
+          <a:ext cx="5400040" cy="1878330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203956</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1185298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16441616" y="23944385"/>
+          <a:ext cx="2402032" cy="1097375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2476,8 +2740,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2523,14 +2787,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="85"/>
+      <c r="F2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2554,14 +2818,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="86">
         <v>9</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80">
+      <c r="D3" s="87"/>
+      <c r="F3" s="79">
         <v>42460</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2585,10 +2849,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2617,10 +2881,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2674,7 +2938,7 @@
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>190</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -2704,12 +2968,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2765,13 +3029,13 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62">
-        <v>1</v>
+      <c r="B10" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2799,32 +3063,42 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="J10" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>196</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="62"/>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_09_03_CO_REC200_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2834,32 +3108,42 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="J11" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2869,32 +3153,42 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG04.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2904,427 +3198,545 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>195</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>213</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>214</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="216" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>210</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>208</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>206</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62">
+        <v>157760360</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>223</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>212</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
+        <v>IMG11</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG11n.jpg</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG11a.jpg</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 458 px</v>
       </c>
       <c r="J20" s="64"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="66" t="s">
+        <v>224</v>
+      </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B21" s="62"/>
+        <v>IMG12</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>199</v>
+      </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG12n.jpg</v>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG12a.jpg</v>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>201</v>
+      </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B22" s="62"/>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="62">
+        <v>313918793</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG13n.jpg</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG13a.jpg</v>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="69"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="64"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="62">
+        <v>311207282</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG14n.jpg</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG14a.jpg</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>203</v>
+      </c>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B24" s="62"/>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG15n.jpg</v>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG15a.jpg</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="65"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>207</v>
+      </c>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B25" s="62"/>
+        <v>IMG16</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>206</v>
+      </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC200_IMG16n.jpg</v>
       </c>
       <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC200_IMG16a.jpg</v>
       </c>
       <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="63"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>221</v>
+      </c>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3700,7 +4112,7 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="70"/>
+      <c r="J37" s="69"/>
       <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3731,7 +4143,7 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="71"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5948,6 +6360,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5972,25 +6385,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5998,11 +6411,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6053,11 +6466,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6102,12 +6515,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6201,14 +6614,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6241,12 +6654,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6286,12 +6699,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6307,12 +6720,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6703,40 +7116,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -7000,7 +7413,7 @@
       <c r="B12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -7074,29 +7487,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
+      <c r="G15" s="74"/>
+      <c r="H15" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="76" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7251,7 +7664,7 @@
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -7328,7 +7741,7 @@
         <v>176</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
